--- a/synthetic-data/synDatasets/vessel_cost.xlsx
+++ b/synthetic-data/synDatasets/vessel_cost.xlsx
@@ -14,30 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="50">
-  <si>
-    <t>Vessel_ID</t>
-  </si>
-  <si>
-    <t>Load_Port</t>
-  </si>
-  <si>
-    <t>Discharge_Port</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Ocean_Freight_(₹/tonne)</t>
-  </si>
-  <si>
-    <t>Demurrage_Rate_(₹/hr)</t>
-  </si>
-  <si>
-    <t>Contract_Quantity(tonnes)</t>
-  </si>
-  <si>
-    <t>Laydays_Allowed(hours)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="50">
+  <si>
+    <t>vessel_id</t>
+  </si>
+  <si>
+    <t>load_port</t>
+  </si>
+  <si>
+    <t>discharge_port</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>ocean_freight_inr_tonne</t>
+  </si>
+  <si>
+    <t>demurrage_rate_inr_hr</t>
+  </si>
+  <si>
+    <t>contract_quantity_tonnes</t>
+  </si>
+  <si>
+    <t>laydays_allowed_hours</t>
   </si>
   <si>
     <t>V001</t>
@@ -115,39 +115,39 @@
     <t>V025</t>
   </si>
   <si>
+    <t>Haldia Port</t>
+  </si>
+  <si>
+    <t>Durban (SAF)</t>
+  </si>
+  <si>
+    <t>Baltimore (USA)</t>
+  </si>
+  <si>
+    <t>Paradip Port</t>
+  </si>
+  <si>
+    <t>Jebel Ali (UAE)</t>
+  </si>
+  <si>
     <t>Port of Salalah (OMN)</t>
   </si>
   <si>
-    <t>Paradip Port</t>
-  </si>
-  <si>
-    <t>Jebel Ali (UAE)</t>
+    <t>Gladstone (AUS)</t>
   </si>
   <si>
     <t>Vung Tau (VNM)</t>
   </si>
   <si>
-    <t>Haldia Port</t>
-  </si>
-  <si>
-    <t>Durban (SAF)</t>
-  </si>
-  <si>
     <t>Hay Point (AUS)</t>
   </si>
   <si>
     <t>Visakhapatnam Port</t>
   </si>
   <si>
-    <t>Gladstone (AUS)</t>
-  </si>
-  <si>
     <t>Newcastle (AUS)</t>
   </si>
   <si>
-    <t>Baltimore (USA)</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -157,13 +157,13 @@
     <t>Hamburg (GER)</t>
   </si>
   <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
     <t>Limestone</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>Coal</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,22 +568,22 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="1">
-        <v>1280.32</v>
+        <v>3178.37</v>
       </c>
       <c r="F2" s="1">
-        <v>112285.32</v>
+        <v>76862.49000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>35000</v>
+        <v>18100</v>
       </c>
       <c r="H2" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -594,22 +594,22 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="1">
-        <v>4010.46</v>
+        <v>2265.24</v>
       </c>
       <c r="F3" s="1">
-        <v>119305.27</v>
+        <v>122935.6</v>
       </c>
       <c r="G3" s="1">
-        <v>25000</v>
+        <v>41500</v>
       </c>
       <c r="H3" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -620,22 +620,22 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1">
-        <v>1646.49</v>
+        <v>2196.59</v>
       </c>
       <c r="F4" s="1">
-        <v>76160.38</v>
+        <v>71558.64</v>
       </c>
       <c r="G4" s="1">
-        <v>38500</v>
+        <v>31000</v>
       </c>
       <c r="H4" s="1">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -646,22 +646,22 @@
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="1">
-        <v>1266.61</v>
+        <v>3196.29</v>
       </c>
       <c r="F5" s="1">
-        <v>77698.21000000001</v>
+        <v>84004.32000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>37200</v>
+        <v>21100</v>
       </c>
       <c r="H5" s="1">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -669,22 +669,22 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1">
-        <v>1656.07</v>
+        <v>1819.1</v>
       </c>
       <c r="F6" s="1">
-        <v>79160.67999999999</v>
+        <v>110805.81</v>
       </c>
       <c r="G6" s="1">
-        <v>36800</v>
+        <v>29600</v>
       </c>
       <c r="H6" s="1">
         <v>96</v>
@@ -695,25 +695,25 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1">
-        <v>3140.53</v>
+        <v>1486.15</v>
       </c>
       <c r="F7" s="1">
-        <v>93369.92</v>
+        <v>119490.52</v>
       </c>
       <c r="G7" s="1">
-        <v>24100</v>
+        <v>38000</v>
       </c>
       <c r="H7" s="1">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -721,22 +721,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1">
-        <v>1571.02</v>
+        <v>2219.71</v>
       </c>
       <c r="F8" s="1">
-        <v>122996.77</v>
+        <v>70197.36</v>
       </c>
       <c r="G8" s="1">
-        <v>39600</v>
+        <v>34100</v>
       </c>
       <c r="H8" s="1">
         <v>96</v>
@@ -747,25 +747,25 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1">
-        <v>1783.48</v>
+        <v>3512.41</v>
       </c>
       <c r="F9" s="1">
-        <v>87243.7</v>
+        <v>85254.95</v>
       </c>
       <c r="G9" s="1">
-        <v>47000</v>
+        <v>20700</v>
       </c>
       <c r="H9" s="1">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -776,19 +776,19 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="1">
-        <v>1280.37</v>
+        <v>3922.66</v>
       </c>
       <c r="F10" s="1">
-        <v>76399.32000000001</v>
+        <v>98521.25</v>
       </c>
       <c r="G10" s="1">
-        <v>34300</v>
+        <v>18300</v>
       </c>
       <c r="H10" s="1">
         <v>72</v>
@@ -799,25 +799,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="1">
-        <v>1961.41</v>
+        <v>1375.42</v>
       </c>
       <c r="F11" s="1">
-        <v>100657.41</v>
+        <v>113186.21</v>
       </c>
       <c r="G11" s="1">
-        <v>41200</v>
+        <v>34600</v>
       </c>
       <c r="H11" s="1">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -825,25 +825,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="1">
-        <v>1545.84</v>
+        <v>3012.05</v>
       </c>
       <c r="F12" s="1">
-        <v>71293.47</v>
+        <v>110092.55</v>
       </c>
       <c r="G12" s="1">
-        <v>38300</v>
+        <v>16200</v>
       </c>
       <c r="H12" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -854,22 +854,22 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="1">
-        <v>1771.92</v>
+        <v>3744.24</v>
       </c>
       <c r="F13" s="1">
-        <v>107959.84</v>
+        <v>85883.07000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>36700</v>
+        <v>18600</v>
       </c>
       <c r="H13" s="1">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -877,22 +877,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="1">
-        <v>1709.79</v>
+        <v>1370.1</v>
       </c>
       <c r="F14" s="1">
-        <v>117718.86</v>
+        <v>74731.92999999999</v>
       </c>
       <c r="G14" s="1">
-        <v>35900</v>
+        <v>31000</v>
       </c>
       <c r="H14" s="1">
         <v>96</v>
@@ -900,28 +900,28 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="1">
-        <v>2965.66</v>
+        <v>2163.23</v>
       </c>
       <c r="F15" s="1">
-        <v>118926.89</v>
+        <v>70032.66</v>
       </c>
       <c r="G15" s="1">
-        <v>25000</v>
+        <v>47500</v>
       </c>
       <c r="H15" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -929,22 +929,22 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1">
-        <v>3795.89</v>
+        <v>1455.5</v>
       </c>
       <c r="F16" s="1">
-        <v>88167.83</v>
+        <v>109629.61</v>
       </c>
       <c r="G16" s="1">
-        <v>19400</v>
+        <v>38000</v>
       </c>
       <c r="H16" s="1">
         <v>120</v>
@@ -955,25 +955,25 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1">
-        <v>1622.05</v>
+        <v>1299.6</v>
       </c>
       <c r="F17" s="1">
-        <v>116512.04</v>
+        <v>104473.92</v>
       </c>
       <c r="G17" s="1">
-        <v>32400</v>
+        <v>29800</v>
       </c>
       <c r="H17" s="1">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -981,48 +981,48 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1">
-        <v>3885.52</v>
+        <v>2938.86</v>
       </c>
       <c r="F18" s="1">
-        <v>112126.19</v>
+        <v>117509</v>
       </c>
       <c r="G18" s="1">
-        <v>20400</v>
+        <v>18500</v>
       </c>
       <c r="H18" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1">
-        <v>2129.17</v>
+        <v>3193.32</v>
       </c>
       <c r="F19" s="1">
-        <v>71563.33</v>
+        <v>101879.34</v>
       </c>
       <c r="G19" s="1">
-        <v>32700</v>
+        <v>16400</v>
       </c>
       <c r="H19" s="1">
         <v>96</v>
@@ -1030,25 +1030,25 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="1">
-        <v>3967.73</v>
+        <v>2152.88</v>
       </c>
       <c r="F20" s="1">
-        <v>101617.18</v>
+        <v>79264.45</v>
       </c>
       <c r="G20" s="1">
-        <v>18800</v>
+        <v>32600</v>
       </c>
       <c r="H20" s="1">
         <v>72</v>
@@ -1062,19 +1062,19 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1">
-        <v>1927.82</v>
+        <v>3693.48</v>
       </c>
       <c r="F21" s="1">
-        <v>83871.98</v>
+        <v>91863.53999999999</v>
       </c>
       <c r="G21" s="1">
-        <v>37100</v>
+        <v>15200</v>
       </c>
       <c r="H21" s="1">
         <v>96</v>
@@ -1085,22 +1085,22 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="1">
-        <v>2073.92</v>
+        <v>1524.03</v>
       </c>
       <c r="F22" s="1">
-        <v>86725.02</v>
+        <v>82127.50999999999</v>
       </c>
       <c r="G22" s="1">
-        <v>43500</v>
+        <v>39200</v>
       </c>
       <c r="H22" s="1">
         <v>72</v>
@@ -1111,51 +1111,51 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1">
-        <v>4074.85</v>
+        <v>3505.96</v>
       </c>
       <c r="F23" s="1">
-        <v>111441.45</v>
+        <v>115450.27</v>
       </c>
       <c r="G23" s="1">
-        <v>24400</v>
+        <v>19700</v>
       </c>
       <c r="H23" s="1">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="1">
-        <v>1808.77</v>
+        <v>1738.47</v>
       </c>
       <c r="F24" s="1">
-        <v>72446.88</v>
+        <v>82931.34</v>
       </c>
       <c r="G24" s="1">
-        <v>39400</v>
+        <v>25800</v>
       </c>
       <c r="H24" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1163,25 +1163,25 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E25" s="1">
-        <v>2185.42</v>
+        <v>3545.63</v>
       </c>
       <c r="F25" s="1">
-        <v>124377</v>
+        <v>68040.17999999999</v>
       </c>
       <c r="G25" s="1">
-        <v>42000</v>
+        <v>21500</v>
       </c>
       <c r="H25" s="1">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1189,22 +1189,22 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1">
-        <v>4065.32</v>
+        <v>3988.97</v>
       </c>
       <c r="F26" s="1">
-        <v>102888.74</v>
+        <v>89260.81</v>
       </c>
       <c r="G26" s="1">
-        <v>21800</v>
+        <v>17800</v>
       </c>
       <c r="H26" s="1">
         <v>96</v>
@@ -1215,48 +1215,48 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="1">
-        <v>3648.69</v>
+        <v>2304.11</v>
       </c>
       <c r="F27" s="1">
-        <v>97800.7</v>
+        <v>124170.15</v>
       </c>
       <c r="G27" s="1">
-        <v>17200</v>
+        <v>35100</v>
       </c>
       <c r="H27" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="1">
-        <v>1429.34</v>
+        <v>3883.33</v>
       </c>
       <c r="F28" s="1">
-        <v>109741.39</v>
+        <v>71172.49000000001</v>
       </c>
       <c r="G28" s="1">
-        <v>26400</v>
+        <v>21100</v>
       </c>
       <c r="H28" s="1">
         <v>120</v>
@@ -1267,22 +1267,22 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1">
-        <v>2139.84</v>
+        <v>2282.84</v>
       </c>
       <c r="F29" s="1">
-        <v>71118.00999999999</v>
+        <v>99517.60000000001</v>
       </c>
       <c r="G29" s="1">
-        <v>41300</v>
+        <v>49700</v>
       </c>
       <c r="H29" s="1">
         <v>72</v>
@@ -1293,25 +1293,25 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1">
-        <v>3249.43</v>
+        <v>3181.72</v>
       </c>
       <c r="F30" s="1">
-        <v>75511.84</v>
+        <v>75179.37</v>
       </c>
       <c r="G30" s="1">
-        <v>18700</v>
+        <v>19000</v>
       </c>
       <c r="H30" s="1">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1319,25 +1319,25 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="1">
-        <v>3950.13</v>
+        <v>2152.66</v>
       </c>
       <c r="F31" s="1">
-        <v>72041.50999999999</v>
+        <v>85751.25999999999</v>
       </c>
       <c r="G31" s="1">
-        <v>24700</v>
+        <v>43600</v>
       </c>
       <c r="H31" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1345,51 +1345,51 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="1">
-        <v>3769.31</v>
+        <v>1756.05</v>
       </c>
       <c r="F32" s="1">
-        <v>83699.14999999999</v>
+        <v>92852.49000000001</v>
       </c>
       <c r="G32" s="1">
-        <v>15300</v>
+        <v>40800</v>
       </c>
       <c r="H32" s="1">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33" s="1">
-        <v>1748.25</v>
+        <v>1979.72</v>
       </c>
       <c r="F33" s="1">
-        <v>96253.33</v>
+        <v>97207.88</v>
       </c>
       <c r="G33" s="1">
-        <v>38600</v>
+        <v>44600</v>
       </c>
       <c r="H33" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1397,22 +1397,22 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
         <v>47</v>
       </c>
       <c r="E34" s="1">
-        <v>1519.04</v>
+        <v>3088.96</v>
       </c>
       <c r="F34" s="1">
-        <v>120455.06</v>
+        <v>84189.34</v>
       </c>
       <c r="G34" s="1">
-        <v>26700</v>
+        <v>24800</v>
       </c>
       <c r="H34" s="1">
         <v>96</v>
@@ -1423,25 +1423,25 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1">
-        <v>1441.88</v>
+        <v>1943.34</v>
       </c>
       <c r="F35" s="1">
-        <v>123436.7</v>
+        <v>68559.12</v>
       </c>
       <c r="G35" s="1">
-        <v>25700</v>
+        <v>39500</v>
       </c>
       <c r="H35" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1449,25 +1449,25 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1">
-        <v>1812.67</v>
+        <v>3171.32</v>
       </c>
       <c r="F36" s="1">
-        <v>90901.84</v>
+        <v>88064.27</v>
       </c>
       <c r="G36" s="1">
-        <v>39500</v>
+        <v>18300</v>
       </c>
       <c r="H36" s="1">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1475,25 +1475,25 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
         <v>33</v>
       </c>
-      <c r="C37" t="s">
-        <v>40</v>
-      </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E37" s="1">
-        <v>1286.95</v>
+        <v>2088.41</v>
       </c>
       <c r="F37" s="1">
-        <v>78045.53</v>
+        <v>117111.8</v>
       </c>
       <c r="G37" s="1">
-        <v>39500</v>
+        <v>30500</v>
       </c>
       <c r="H37" s="1">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1501,25 +1501,25 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E38" s="1">
-        <v>1703.83</v>
+        <v>3849.87</v>
       </c>
       <c r="F38" s="1">
-        <v>84597.96000000001</v>
+        <v>113520.54</v>
       </c>
       <c r="G38" s="1">
-        <v>44600</v>
+        <v>21800</v>
       </c>
       <c r="H38" s="1">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1530,22 +1530,22 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
         <v>47</v>
       </c>
       <c r="E39" s="1">
-        <v>1672.42</v>
+        <v>3563.19</v>
       </c>
       <c r="F39" s="1">
-        <v>86270.03</v>
+        <v>71130.12</v>
       </c>
       <c r="G39" s="1">
-        <v>35300</v>
+        <v>16600</v>
       </c>
       <c r="H39" s="1">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1556,22 +1556,22 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1">
-        <v>1660.23</v>
+        <v>2070.57</v>
       </c>
       <c r="F40" s="1">
-        <v>112401.03</v>
+        <v>109262</v>
       </c>
       <c r="G40" s="1">
-        <v>33800</v>
+        <v>32500</v>
       </c>
       <c r="H40" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1582,22 +1582,22 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
         <v>47</v>
       </c>
       <c r="E41" s="1">
-        <v>1556.26</v>
+        <v>3488.39</v>
       </c>
       <c r="F41" s="1">
-        <v>96331.35000000001</v>
+        <v>120212.14</v>
       </c>
       <c r="G41" s="1">
-        <v>38200</v>
+        <v>17200</v>
       </c>
       <c r="H41" s="1">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1605,25 +1605,25 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E42" s="1">
-        <v>3675.65</v>
+        <v>1621.56</v>
       </c>
       <c r="F42" s="1">
-        <v>88161.49000000001</v>
+        <v>78660.00999999999</v>
       </c>
       <c r="G42" s="1">
-        <v>18900</v>
+        <v>38700</v>
       </c>
       <c r="H42" s="1">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1631,25 +1631,25 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E43" s="1">
-        <v>3711.78</v>
+        <v>1321.62</v>
       </c>
       <c r="F43" s="1">
-        <v>73702.11</v>
+        <v>68248.27</v>
       </c>
       <c r="G43" s="1">
-        <v>19700</v>
+        <v>37300</v>
       </c>
       <c r="H43" s="1">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1657,51 +1657,51 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
       </c>
       <c r="E44" s="1">
-        <v>3454.34</v>
+        <v>1773.88</v>
       </c>
       <c r="F44" s="1">
-        <v>92838.75</v>
+        <v>119789.13</v>
       </c>
       <c r="G44" s="1">
-        <v>24400</v>
+        <v>49900</v>
       </c>
       <c r="H44" s="1">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
         <v>37</v>
       </c>
-      <c r="C45" t="s">
-        <v>45</v>
-      </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E45" s="1">
-        <v>2956.56</v>
+        <v>3752.56</v>
       </c>
       <c r="F45" s="1">
-        <v>106992.93</v>
+        <v>77764.34</v>
       </c>
       <c r="G45" s="1">
-        <v>16100</v>
+        <v>24800</v>
       </c>
       <c r="H45" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1709,25 +1709,25 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E46" s="1">
-        <v>1765.61</v>
+        <v>2111.68</v>
       </c>
       <c r="F46" s="1">
-        <v>114236.8</v>
+        <v>81050.92999999999</v>
       </c>
       <c r="G46" s="1">
-        <v>30300</v>
+        <v>31100</v>
       </c>
       <c r="H46" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1735,22 +1735,22 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E47" s="1">
-        <v>4006.57</v>
+        <v>3745.64</v>
       </c>
       <c r="F47" s="1">
-        <v>109605.32</v>
+        <v>109015.54</v>
       </c>
       <c r="G47" s="1">
-        <v>17600</v>
+        <v>21800</v>
       </c>
       <c r="H47" s="1">
         <v>120</v>
@@ -1761,51 +1761,51 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E48" s="1">
-        <v>3333.9</v>
+        <v>1541.54</v>
       </c>
       <c r="F48" s="1">
-        <v>83535.8</v>
+        <v>89439.03</v>
       </c>
       <c r="G48" s="1">
-        <v>22400</v>
+        <v>31500</v>
       </c>
       <c r="H48" s="1">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
       </c>
       <c r="E49" s="1">
-        <v>3279.21</v>
+        <v>1966.26</v>
       </c>
       <c r="F49" s="1">
-        <v>75238.36</v>
+        <v>87933.16</v>
       </c>
       <c r="G49" s="1">
-        <v>16800</v>
+        <v>44700</v>
       </c>
       <c r="H49" s="1">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1813,22 +1813,22 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
         <v>36</v>
       </c>
-      <c r="C50" t="s">
-        <v>40</v>
-      </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E50" s="1">
-        <v>1474.75</v>
+        <v>1821.67</v>
       </c>
       <c r="F50" s="1">
-        <v>113799.96</v>
+        <v>99657.44</v>
       </c>
       <c r="G50" s="1">
-        <v>32400</v>
+        <v>30300</v>
       </c>
       <c r="H50" s="1">
         <v>120</v>
@@ -1839,48 +1839,48 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
         <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E51" s="1">
-        <v>4089.05</v>
+        <v>4025.4</v>
       </c>
       <c r="F51" s="1">
-        <v>77474.74000000001</v>
+        <v>115659.14</v>
       </c>
       <c r="G51" s="1">
-        <v>23200</v>
+        <v>19300</v>
       </c>
       <c r="H51" s="1">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E52" s="1">
-        <v>1993.22</v>
+        <v>3206.25</v>
       </c>
       <c r="F52" s="1">
-        <v>94236.66</v>
+        <v>110090.3</v>
       </c>
       <c r="G52" s="1">
-        <v>32000</v>
+        <v>20300</v>
       </c>
       <c r="H52" s="1">
         <v>72</v>
@@ -1888,28 +1888,28 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D53" t="s">
         <v>47</v>
       </c>
       <c r="E53" s="1">
-        <v>1307.94</v>
+        <v>4002.68</v>
       </c>
       <c r="F53" s="1">
-        <v>67141.19</v>
+        <v>77531.12</v>
       </c>
       <c r="G53" s="1">
-        <v>37500</v>
+        <v>19700</v>
       </c>
       <c r="H53" s="1">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1917,25 +1917,25 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54" s="1">
-        <v>4083.39</v>
+        <v>3493.73</v>
       </c>
       <c r="F54" s="1">
-        <v>97336.03999999999</v>
+        <v>117804.35</v>
       </c>
       <c r="G54" s="1">
-        <v>18200</v>
+        <v>16900</v>
       </c>
       <c r="H54" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1943,48 +1943,48 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
       </c>
       <c r="E55" s="1">
-        <v>3843.26</v>
+        <v>1709.96</v>
       </c>
       <c r="F55" s="1">
-        <v>101221.48</v>
+        <v>92738.28999999999</v>
       </c>
       <c r="G55" s="1">
-        <v>23300</v>
+        <v>46000</v>
       </c>
       <c r="H55" s="1">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E56" s="1">
-        <v>3529.43</v>
+        <v>1527.81</v>
       </c>
       <c r="F56" s="1">
-        <v>72219.11</v>
+        <v>108169.43</v>
       </c>
       <c r="G56" s="1">
-        <v>17200</v>
+        <v>37300</v>
       </c>
       <c r="H56" s="1">
         <v>72</v>
@@ -1992,54 +1992,54 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E57" s="1">
-        <v>1421.16</v>
+        <v>2099.36</v>
       </c>
       <c r="F57" s="1">
-        <v>118431.93</v>
+        <v>103076.23</v>
       </c>
       <c r="G57" s="1">
-        <v>26200</v>
+        <v>42300</v>
       </c>
       <c r="H57" s="1">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E58" s="1">
-        <v>2208.71</v>
+        <v>1847.97</v>
       </c>
       <c r="F58" s="1">
-        <v>87246.50999999999</v>
+        <v>74997.08</v>
       </c>
       <c r="G58" s="1">
-        <v>49400</v>
+        <v>30700</v>
       </c>
       <c r="H58" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2047,48 +2047,48 @@
         <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
         <v>49</v>
       </c>
       <c r="E59" s="1">
-        <v>1987.38</v>
+        <v>1405.77</v>
       </c>
       <c r="F59" s="1">
-        <v>78925.78</v>
+        <v>86044.53999999999</v>
       </c>
       <c r="G59" s="1">
-        <v>31600</v>
+        <v>33600</v>
       </c>
       <c r="H59" s="1">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E60" s="1">
-        <v>3053.3</v>
+        <v>1284.6</v>
       </c>
       <c r="F60" s="1">
-        <v>99066.00999999999</v>
+        <v>122565.52</v>
       </c>
       <c r="G60" s="1">
-        <v>24600</v>
+        <v>37600</v>
       </c>
       <c r="H60" s="1">
         <v>96</v>
@@ -2096,285 +2096,285 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E61" s="1">
-        <v>1805.27</v>
+        <v>3321.64</v>
       </c>
       <c r="F61" s="1">
-        <v>71378.00999999999</v>
+        <v>122941.65</v>
       </c>
       <c r="G61" s="1">
-        <v>33200</v>
+        <v>16500</v>
       </c>
       <c r="H61" s="1">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E62" s="1">
-        <v>3788.52</v>
+        <v>1423.3</v>
       </c>
       <c r="F62" s="1">
-        <v>108305.79</v>
+        <v>105037.75</v>
       </c>
       <c r="G62" s="1">
-        <v>24500</v>
+        <v>32300</v>
       </c>
       <c r="H62" s="1">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E63" s="1">
-        <v>1489.02</v>
+        <v>1431.13</v>
       </c>
       <c r="F63" s="1">
-        <v>79563.35000000001</v>
+        <v>66970.97</v>
       </c>
       <c r="G63" s="1">
-        <v>30700</v>
+        <v>39600</v>
       </c>
       <c r="H63" s="1">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
         <v>49</v>
       </c>
       <c r="E64" s="1">
-        <v>1687.16</v>
+        <v>1344.74</v>
       </c>
       <c r="F64" s="1">
-        <v>82348.89999999999</v>
+        <v>97190.03</v>
       </c>
       <c r="G64" s="1">
-        <v>33900</v>
+        <v>25800</v>
       </c>
       <c r="H64" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D65" t="s">
         <v>47</v>
       </c>
       <c r="E65" s="1">
-        <v>1275.01</v>
+        <v>3362.46</v>
       </c>
       <c r="F65" s="1">
-        <v>70052.23</v>
+        <v>111275.5</v>
       </c>
       <c r="G65" s="1">
-        <v>39800</v>
+        <v>22200</v>
       </c>
       <c r="H65" s="1">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E66" s="1">
-        <v>4074.13</v>
+        <v>1718.99</v>
       </c>
       <c r="F66" s="1">
-        <v>105342.84</v>
+        <v>109824.61</v>
       </c>
       <c r="G66" s="1">
-        <v>17200</v>
+        <v>31600</v>
       </c>
       <c r="H66" s="1">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D67" t="s">
         <v>49</v>
       </c>
       <c r="E67" s="1">
-        <v>2249.25</v>
+        <v>1434.91</v>
       </c>
       <c r="F67" s="1">
-        <v>121698.35</v>
+        <v>108066.64</v>
       </c>
       <c r="G67" s="1">
-        <v>30100</v>
+        <v>28300</v>
       </c>
       <c r="H67" s="1">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D68" t="s">
         <v>47</v>
       </c>
       <c r="E68" s="1">
-        <v>1508.11</v>
+        <v>3560.95</v>
       </c>
       <c r="F68" s="1">
-        <v>115531.96</v>
+        <v>97261.17</v>
       </c>
       <c r="G68" s="1">
-        <v>34000</v>
+        <v>15300</v>
       </c>
       <c r="H68" s="1">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E69" s="1">
-        <v>3640.55</v>
+        <v>2994.02</v>
       </c>
       <c r="F69" s="1">
-        <v>115410.2</v>
+        <v>116756.46</v>
       </c>
       <c r="G69" s="1">
-        <v>20600</v>
+        <v>25000</v>
       </c>
       <c r="H69" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E70" s="1">
-        <v>1592.68</v>
+        <v>1402</v>
       </c>
       <c r="F70" s="1">
-        <v>96362.89999999999</v>
+        <v>71277.10000000001</v>
       </c>
       <c r="G70" s="1">
-        <v>33100</v>
+        <v>29600</v>
       </c>
       <c r="H70" s="1">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s">
         <v>48</v>
       </c>
       <c r="E71" s="1">
-        <v>3246.98</v>
+        <v>2280.67</v>
       </c>
       <c r="F71" s="1">
-        <v>75092.97</v>
+        <v>112297.61</v>
       </c>
       <c r="G71" s="1">
-        <v>15600</v>
+        <v>38300</v>
       </c>
       <c r="H71" s="1">
         <v>96</v>
@@ -2382,25 +2382,25 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" t="s">
         <v>33</v>
       </c>
-      <c r="C72" t="s">
-        <v>40</v>
-      </c>
       <c r="D72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E72" s="1">
-        <v>1824.72</v>
+        <v>1536.88</v>
       </c>
       <c r="F72" s="1">
-        <v>119954.27</v>
+        <v>121454.62</v>
       </c>
       <c r="G72" s="1">
-        <v>36100</v>
+        <v>27100</v>
       </c>
       <c r="H72" s="1">
         <v>120</v>
@@ -2408,25 +2408,25 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E73" s="1">
-        <v>1698.34</v>
+        <v>1656.51</v>
       </c>
       <c r="F73" s="1">
-        <v>83205.71000000001</v>
+        <v>123640.27</v>
       </c>
       <c r="G73" s="1">
-        <v>30500</v>
+        <v>35200</v>
       </c>
       <c r="H73" s="1">
         <v>96</v>
@@ -2434,51 +2434,51 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E74" s="1">
-        <v>3056.83</v>
+        <v>1744.84</v>
       </c>
       <c r="F74" s="1">
-        <v>97965.56</v>
+        <v>122716.68</v>
       </c>
       <c r="G74" s="1">
-        <v>21200</v>
+        <v>29400</v>
       </c>
       <c r="H74" s="1">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E75" s="1">
-        <v>1873.45</v>
+        <v>3820.38</v>
       </c>
       <c r="F75" s="1">
-        <v>76522.2</v>
+        <v>104611.49</v>
       </c>
       <c r="G75" s="1">
-        <v>37200</v>
+        <v>22300</v>
       </c>
       <c r="H75" s="1">
         <v>72</v>
@@ -2486,51 +2486,51 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D76" t="s">
         <v>49</v>
       </c>
       <c r="E76" s="1">
-        <v>2170.13</v>
+        <v>1255.79</v>
       </c>
       <c r="F76" s="1">
-        <v>112556.28</v>
+        <v>73035.86</v>
       </c>
       <c r="G76" s="1">
-        <v>49700</v>
+        <v>38900</v>
       </c>
       <c r="H76" s="1">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E77" s="1">
-        <v>3518.2</v>
+        <v>3413.32</v>
       </c>
       <c r="F77" s="1">
-        <v>121460.58</v>
+        <v>104137.75</v>
       </c>
       <c r="G77" s="1">
-        <v>15600</v>
+        <v>21000</v>
       </c>
       <c r="H77" s="1">
         <v>120</v>
@@ -2538,129 +2538,129 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E78" s="1">
-        <v>2277.58</v>
+        <v>3930.34</v>
       </c>
       <c r="F78" s="1">
-        <v>77785.67</v>
+        <v>87694.74000000001</v>
       </c>
       <c r="G78" s="1">
-        <v>37300</v>
+        <v>20900</v>
       </c>
       <c r="H78" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D79" t="s">
         <v>49</v>
       </c>
       <c r="E79" s="1">
-        <v>2121.53</v>
+        <v>1268.08</v>
       </c>
       <c r="F79" s="1">
-        <v>101683.91</v>
+        <v>118692.54</v>
       </c>
       <c r="G79" s="1">
-        <v>38300</v>
+        <v>39900</v>
       </c>
       <c r="H79" s="1">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D80" t="s">
         <v>47</v>
       </c>
       <c r="E80" s="1">
-        <v>1406.93</v>
+        <v>2936.9</v>
       </c>
       <c r="F80" s="1">
-        <v>119047.85</v>
+        <v>82207.11</v>
       </c>
       <c r="G80" s="1">
-        <v>27400</v>
+        <v>24100</v>
       </c>
       <c r="H80" s="1">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E81" s="1">
-        <v>3540.59</v>
+        <v>1544.86</v>
       </c>
       <c r="F81" s="1">
-        <v>67197.2</v>
+        <v>106169.96</v>
       </c>
       <c r="G81" s="1">
-        <v>18400</v>
+        <v>36900</v>
       </c>
       <c r="H81" s="1">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D82" t="s">
         <v>47</v>
       </c>
       <c r="E82" s="1">
-        <v>1250.37</v>
+        <v>3947.19</v>
       </c>
       <c r="F82" s="1">
-        <v>103102.59</v>
+        <v>124050.38</v>
       </c>
       <c r="G82" s="1">
-        <v>37100</v>
+        <v>22100</v>
       </c>
       <c r="H82" s="1">
         <v>72</v>
@@ -2668,51 +2668,51 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
         <v>35</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E83" s="1">
-        <v>1809.83</v>
+        <v>1935.57</v>
       </c>
       <c r="F83" s="1">
-        <v>99360.57000000001</v>
+        <v>99258.44</v>
       </c>
       <c r="G83" s="1">
-        <v>27600</v>
+        <v>45200</v>
       </c>
       <c r="H83" s="1">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E84" s="1">
-        <v>3141.44</v>
+        <v>1452.16</v>
       </c>
       <c r="F84" s="1">
-        <v>85742.97</v>
+        <v>115749.66</v>
       </c>
       <c r="G84" s="1">
-        <v>24400</v>
+        <v>29900</v>
       </c>
       <c r="H84" s="1">
         <v>96</v>
@@ -2720,51 +2720,51 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E85" s="1">
-        <v>3433.71</v>
+        <v>3009.69</v>
       </c>
       <c r="F85" s="1">
-        <v>94970.14999999999</v>
+        <v>93370.25999999999</v>
       </c>
       <c r="G85" s="1">
-        <v>15700</v>
+        <v>24300</v>
       </c>
       <c r="H85" s="1">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D86" t="s">
         <v>47</v>
       </c>
       <c r="E86" s="1">
-        <v>1702.1</v>
+        <v>4107.73</v>
       </c>
       <c r="F86" s="1">
-        <v>81673.25</v>
+        <v>114063.42</v>
       </c>
       <c r="G86" s="1">
-        <v>30800</v>
+        <v>20600</v>
       </c>
       <c r="H86" s="1">
         <v>96</v>
@@ -2772,51 +2772,51 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D87" t="s">
         <v>48</v>
       </c>
       <c r="E87" s="1">
-        <v>3227.92</v>
+        <v>1975.67</v>
       </c>
       <c r="F87" s="1">
-        <v>82329.89999999999</v>
+        <v>104383.85</v>
       </c>
       <c r="G87" s="1">
-        <v>20800</v>
+        <v>46200</v>
       </c>
       <c r="H87" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E88" s="1">
-        <v>1259.74</v>
+        <v>1931.77</v>
       </c>
       <c r="F88" s="1">
-        <v>105656.79</v>
+        <v>96876.71000000001</v>
       </c>
       <c r="G88" s="1">
-        <v>30600</v>
+        <v>49600</v>
       </c>
       <c r="H88" s="1">
         <v>96</v>
@@ -2824,158 +2824,392 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D89" t="s">
         <v>47</v>
       </c>
       <c r="E89" s="1">
-        <v>1737.73</v>
+        <v>3379.82</v>
       </c>
       <c r="F89" s="1">
-        <v>98571.5</v>
+        <v>117063.31</v>
       </c>
       <c r="G89" s="1">
-        <v>31000</v>
+        <v>20100</v>
       </c>
       <c r="H89" s="1">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E90" s="1">
-        <v>1333.91</v>
+        <v>1925.01</v>
       </c>
       <c r="F90" s="1">
-        <v>113630.29</v>
+        <v>96699.66</v>
       </c>
       <c r="G90" s="1">
-        <v>30300</v>
+        <v>44900</v>
       </c>
       <c r="H90" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D91" t="s">
         <v>49</v>
       </c>
       <c r="E91" s="1">
-        <v>1703.79</v>
+        <v>1628.53</v>
       </c>
       <c r="F91" s="1">
-        <v>73508.03999999999</v>
+        <v>85477.25</v>
       </c>
       <c r="G91" s="1">
-        <v>31800</v>
+        <v>38700</v>
       </c>
       <c r="H91" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E92" s="1">
-        <v>3100.27</v>
+        <v>1677.21</v>
       </c>
       <c r="F92" s="1">
-        <v>68113.77</v>
+        <v>106800.87</v>
       </c>
       <c r="G92" s="1">
-        <v>21000</v>
+        <v>35200</v>
       </c>
       <c r="H92" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E93" s="1">
-        <v>2046.87</v>
+        <v>1834.09</v>
       </c>
       <c r="F93" s="1">
-        <v>105721.78</v>
+        <v>88203.99000000001</v>
       </c>
       <c r="G93" s="1">
-        <v>50000</v>
+        <v>32200</v>
       </c>
       <c r="H93" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D94" t="s">
         <v>49</v>
       </c>
       <c r="E94" s="1">
-        <v>1852.65</v>
+        <v>1743.3</v>
       </c>
       <c r="F94" s="1">
-        <v>76126.59</v>
+        <v>87358.05</v>
       </c>
       <c r="G94" s="1">
-        <v>40000</v>
+        <v>30200</v>
       </c>
       <c r="H94" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2249.02</v>
+      </c>
+      <c r="F95" s="1">
+        <v>124102.35</v>
+      </c>
+      <c r="G95" s="1">
+        <v>45600</v>
+      </c>
+      <c r="H95" s="1">
         <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1779.82</v>
+      </c>
+      <c r="F96" s="1">
+        <v>81135.57000000001</v>
+      </c>
+      <c r="G96" s="1">
+        <v>32500</v>
+      </c>
+      <c r="H96" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" t="s">
+        <v>47</v>
+      </c>
+      <c r="E97" s="1">
+        <v>3186.89</v>
+      </c>
+      <c r="F97" s="1">
+        <v>76300.33</v>
+      </c>
+      <c r="G97" s="1">
+        <v>24900</v>
+      </c>
+      <c r="H97" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1636.66</v>
+      </c>
+      <c r="F98" s="1">
+        <v>83778.24000000001</v>
+      </c>
+      <c r="G98" s="1">
+        <v>35900</v>
+      </c>
+      <c r="H98" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1706.71</v>
+      </c>
+      <c r="F99" s="1">
+        <v>114980.31</v>
+      </c>
+      <c r="G99" s="1">
+        <v>32300</v>
+      </c>
+      <c r="H99" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" t="s">
+        <v>47</v>
+      </c>
+      <c r="E100" s="1">
+        <v>3044.72</v>
+      </c>
+      <c r="F100" s="1">
+        <v>115550.56</v>
+      </c>
+      <c r="G100" s="1">
+        <v>19700</v>
+      </c>
+      <c r="H100" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1573.1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>81892.25999999999</v>
+      </c>
+      <c r="G101" s="1">
+        <v>38000</v>
+      </c>
+      <c r="H101" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102" s="1">
+        <v>2208.48</v>
+      </c>
+      <c r="F102" s="1">
+        <v>68674.69</v>
+      </c>
+      <c r="G102" s="1">
+        <v>30300</v>
+      </c>
+      <c r="H102" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" s="1">
+        <v>2973.78</v>
+      </c>
+      <c r="F103" s="1">
+        <v>108906.19</v>
+      </c>
+      <c r="G103" s="1">
+        <v>16800</v>
+      </c>
+      <c r="H103" s="1">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
